--- a/website/data/exported1.xlsx
+++ b/website/data/exported1.xlsx
@@ -1061,10 +1061,10 @@
         </is>
       </c>
       <c r="H2" s="6" t="n">
-        <v>45474.25</v>
+        <v>45658.25</v>
       </c>
       <c r="I2" s="6" t="n">
-        <v>45566.25</v>
+        <v>45839.25</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -1112,19 +1112,19 @@
         </is>
       </c>
       <c r="H3" s="6" t="n">
-        <v>45474.25</v>
+        <v>45658.25</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>45566.25</v>
+        <v>45839.25</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="N3" t="n">
         <v>10080</v>
@@ -1138,7 +1138,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>G3</t>
+          <t>G4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1166,10 +1166,10 @@
         </is>
       </c>
       <c r="H4" s="6" t="n">
-        <v>45474.25</v>
+        <v>45658.25</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>45566.25</v>
+        <v>45839.25</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="n">
         <v>10080</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
@@ -1192,7 +1192,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>G4</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1220,25 +1220,25 @@
         </is>
       </c>
       <c r="H5" s="6" t="n">
-        <v>45474.25</v>
+        <v>45658.25</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>45566.25</v>
+        <v>45839.25</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="N5" t="n">
         <v>10080</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1246,7 +1246,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>G7</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1274,25 +1274,25 @@
         </is>
       </c>
       <c r="H6" s="6" t="n">
-        <v>45474.25</v>
+        <v>45658.25</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>45566.25</v>
+        <v>45839.25</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N6" t="n">
         <v>10080</v>
       </c>
       <c r="O6" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
@@ -1300,7 +1300,7 @@
         <v>17</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>G6</t>
+          <t>G8</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1328,22 +1328,22 @@
         </is>
       </c>
       <c r="H7" s="6" t="n">
-        <v>45474.25</v>
+        <v>45658.25</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>45566.25</v>
+        <v>45839.25</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
         <v>10080</v>
       </c>
       <c r="O7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1357,7 +1357,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>tutorial_video(cognitive_activity)</t>
+          <t>tutorial_video(physical_activity)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://campaigns.healthyw8.gamebus.eu/api/media/generated-296ffd13/66972617-5cd5-40e1-8432-ecd99b7dcf10.h5p</t>
+          <t>http://localhost:5173/api/media/media-for-ai-b7b4437a/bb7ce12e-3542-4874-b236-6f4d26bb3a4c.h5p</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [SECRET, EQUAL, lkng9du2qrj8]</t>
+          <t xml:space="preserve"> [SECRET, EQUAL, q9xb4cu37imeb3yyqy4ob2tbw4f0a]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -1495,17 +1495,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>tutorial_video(physical_activity)</t>
+          <t>Take_between_1500_and_2500_steps</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>https://campaigns.healthyw8.gamebus.eu/api/media/HW8-immutable/5ff935d3-d0ae-4dce-bfcd-d2f71bf2ca63.jpeg</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>https://campaigns.healthyw8.gamebus.eu/api/media/generated-296ffd13/a4466cf8-adb1-4a54-9e56-075eae837a53.h5p</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -1516,12 +1511,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>H5P_GENERAL</t>
+          <t>WALK</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>H5P_GENERAL</t>
+          <t>WALK</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -1529,7 +1524,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [SECRET, EQUAL, l0607li5m3kk5n8xtl7exh]</t>
+          <t>[STEPS, STRICTLY_GREATER, 1500], [SECRET, EQUAL, rph00v6dezzbuoy]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -1543,21 +1538,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>tutorial_video(social_activity)</t>
+          <t>Take_400_steps</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>https://campaigns.healthyw8.gamebus.eu/api/media/HW8-immutable/5ff935d3-d0ae-4dce-bfcd-d2f71bf2ca63.jpeg</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://campaigns.healthyw8.gamebus.eu/api/media/generated-296ffd13/f0a366cc-c574-4807-8dab-5dd53dd47f70.h5p</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -1568,12 +1558,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>H5P_GENERAL</t>
+          <t>WALK</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>H5P_GENERAL</t>
+          <t>WALK</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -1581,7 +1571,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [SECRET, EQUAL, 1coih9du78n1m3209nbc9x2jyf8ams4pcho1z]</t>
+          <t>[STEPS, STRICTLY_GREATER, 400], [SECRET, EQUAL, 97je2kh2ihzabnac]</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -1595,11 +1585,11 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Practice_learning_a_new_skill</t>
+          <t>Take_a_25-minute_walk_without_stopping</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1628,11 +1618,11 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [SECRET, EQUAL, ay26tnsn39wctyhtcv9hvrhlu36ghi1hp0sxcvhryneglq84]</t>
+          <t xml:space="preserve"> [SECRET, EQUAL, 8icv7nmsdf93mexl41c9bgnyvumvh2tt1i1bd0y]</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -1646,12 +1636,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Do_10_squats</t>
+          <t>tutorial_video(cognitive_activity)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>https://campaigns.healthyw8.gamebus.eu/api/media/HW8-immutable/5ff935d3-d0ae-4dce-bfcd-d2f71bf2ca63.jpeg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>http://localhost:5173/api/media/media-for-ai-b7b4437a/a6cf16fb-1b3c-4862-9086-307cb11c2a41.h5p</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -1662,12 +1657,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>GENERAL_ACTIVITY</t>
+          <t>H5P_GENERAL</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>GENERAL_ACTIVITY</t>
+          <t>H5P_GENERAL</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -1675,11 +1670,11 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [SECRET, EQUAL, vbc13jrsgbej1lwyo4dx3m]</t>
+          <t xml:space="preserve"> [SECRET, EQUAL, 4pem8tqodu6hdh7]</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -1689,11 +1684,11 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Engage_with_others</t>
+          <t>Take_200_steps</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1709,12 +1704,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>GENERAL_ACTIVITY</t>
+          <t>WALK</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>GENERAL_ACTIVITY</t>
+          <t>WALK</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -1722,11 +1717,11 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [SECRET, EQUAL, 86yg178xf32apsdq2b1wubbz6b8ni55xzmzos8bioc0z2b0i6]</t>
+          <t>[STEPS, STRICTLY_GREATER, 200], [SECRET, EQUAL, 34jw8jq4l1e86y8hq5kppke5lfyhpcp55hyns6xtkmo]</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -1736,11 +1731,11 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Play_a_boardgame</t>
+          <t>Take_a_25-minute_walk_without_stopping</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1769,11 +1764,11 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [SECRET, EQUAL, mokh65h8zgtb4z3e6ifh742y8hi8tynw4bstet]</t>
+          <t xml:space="preserve"> [SECRET, EQUAL, 7o9gmhq8xxr89rp58ut8i0n6qt4me9n9y41pnhesf22igfp]</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -1787,7 +1782,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Learn_a_new_phrase</t>
+          <t>Go_on_a_peaceful_walk</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1816,11 +1811,11 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [SECRET, EQUAL, alqp7pd0w4uc7yizb4j0hb4v3vze4a3liarw71di]</t>
+          <t xml:space="preserve"> [SECRET, EQUAL, buvnuoxfxm1fbmf334y8nh82qwu7h214mmnza9]</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1830,16 +1825,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cook_dinner_for_someone</t>
+          <t>tutorial_video(minigame_activity)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>https://campaigns.healthyw8.gamebus.eu/api/media/HW8-immutable/5ff935d3-d0ae-4dce-bfcd-d2f71bf2ca63.jpeg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>http://localhost:5173/api/media/media-for-ai-b7b4437a/ba5eb809-ed8e-4688-acb0-0df598a2c57c.h5p</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1850,12 +1850,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>GENERAL_ACTIVITY</t>
+          <t>H5P_GENERAL</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>GENERAL_ACTIVITY</t>
+          <t>H5P_GENERAL</t>
         </is>
       </c>
       <c r="K10" t="n">
@@ -1863,11 +1863,11 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [SECRET, EQUAL, gkv25sh4pnhbt5ni1jv7y8nx5]</t>
+          <t xml:space="preserve"> [SECRET, EQUAL, sj7h17ayjq67mo]</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1877,32 +1877,29 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Practice_a_brain_game</t>
+          <t>Confusing Arrows: Buy half heart</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>https://campaigns.healthyw8.gamebus.eu/api/media/HW8-immutable/5ff935d3-d0ae-4dce-bfcd-d2f71bf2ca63.jpeg</t>
         </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>7</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>GENERAL_ACTIVITY</t>
+          <t>ConfusingArrowsData</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>GENERAL_ACTIVITY</t>
+          <t>ConfusingArrowsData</t>
         </is>
       </c>
       <c r="K11" t="n">
@@ -1910,11 +1907,11 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [SECRET, EQUAL, zht0e26gt6dm1nnr0x21qvpzsyd8tb7pddzzhm7]</t>
+          <t>[MINIGAME_BUY_HALF_HEART, STRICTLY_GREATER, 0],[MINIGAMESTATE_ID, EQUAL, 2]</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1924,32 +1921,29 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Walk_10000_steps_in_a_day</t>
+          <t>Confusing Arrows: Score 10 points</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>https://campaigns.healthyw8.gamebus.eu/api/media/HW8-immutable/5ff935d3-d0ae-4dce-bfcd-d2f71bf2ca63.jpeg</t>
         </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>7</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>DAY_AGGREGATE</t>
+          <t>ConfusingArrowsData</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>DAY_AGGREGATE</t>
+          <t>ConfusingArrowsData</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -1957,11 +1951,11 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>[STEPS_SUM, STRICTLY_GREATER, 10000], [SECRET, EQUAL, 5f8lvewdfkfyd5o6hm6d5x6nqwcskv778g4yf]</t>
+          <t>[MINIGAME_SCORE, STRICTLY_GREATER, 10],[MINIGAMESTATE_ID, EQUAL, 2]</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1971,32 +1965,29 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Learn_a_new_word</t>
+          <t>Walk 500 meters</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>https://campaigns.healthyw8.gamebus.eu/api/media/HW8-immutable/5ff935d3-d0ae-4dce-bfcd-d2f71bf2ca63.jpeg</t>
         </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>7</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>GENERAL_ACTIVITY</t>
+          <t>WALK</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>GENERAL_ACTIVITY</t>
+          <t>WALK</t>
         </is>
       </c>
       <c r="K13" t="n">
@@ -2004,11 +1995,11 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [SECRET, EQUAL, 8qastdvw01kjz59raqxww6xdbl3s5pi25p]</t>
+          <t>[DISTANCE, STRICTLY_GREATER, 499]</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -2018,11 +2009,11 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Learn_a_new_phrase</t>
+          <t>Call a friend/family member</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2038,12 +2029,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>GENERAL_ACTIVITY</t>
+          <t>WALK</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>GENERAL_ACTIVITY</t>
+          <t>WALK</t>
         </is>
       </c>
       <c r="K14" t="n">
@@ -2051,11 +2042,11 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [SECRET, EQUAL, fwnk4jhvqj1w]</t>
+          <t xml:space="preserve"> [SECRET, EQUAL, fdjklagas37]</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -2065,32 +2056,29 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Play_a_boardgame</t>
+          <t>Confusing Arrows: Buy half heart</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>https://campaigns.healthyw8.gamebus.eu/api/media/HW8-immutable/5ff935d3-d0ae-4dce-bfcd-d2f71bf2ca63.jpeg</t>
         </is>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>7</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>GENERAL_ACTIVITY</t>
+          <t>ConfusingArrowsData</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>GENERAL_ACTIVITY</t>
+          <t>ConfusingArrowsData</t>
         </is>
       </c>
       <c r="K15" t="n">
@@ -2098,11 +2086,11 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [SECRET, EQUAL, qzmzuonsbcr7k01xe9w54e1at55lri3oqrnymhm]</t>
+          <t>[MINIGAME_BUY_HALF_HEART, STRICTLY_GREATER, 0],[MINIGAMESTATE_ID, EQUAL, 3]</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -2112,32 +2100,29 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Complete_a_puzzle</t>
+          <t>Confusing Arrows: Score 20 points</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>https://campaigns.healthyw8.gamebus.eu/api/media/HW8-immutable/5ff935d3-d0ae-4dce-bfcd-d2f71bf2ca63.jpeg</t>
         </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>7</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>GENERAL_ACTIVITY</t>
+          <t>ConfusingArrowsData</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>GENERAL_ACTIVITY</t>
+          <t>ConfusingArrowsData</t>
         </is>
       </c>
       <c r="K16" t="n">
@@ -2145,11 +2130,11 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [SECRET, EQUAL, 67u0g2tmw4fbksbz5mzni2p76etjqr]</t>
+          <t>[MINIGAME_SCORE, STRICTLY_GREATER, 20],[MINIGAMESTATE_ID, EQUAL, 3]</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -2159,32 +2144,29 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Engage_in_sports_for_at_least_30_minutes</t>
+          <t>Walk 1500 meters</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>https://campaigns.healthyw8.gamebus.eu/api/media/HW8-immutable/5ff935d3-d0ae-4dce-bfcd-d2f71bf2ca63.jpeg</t>
         </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>7</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>GENERAL_ACTIVITY</t>
+          <t>WALK</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>GENERAL_ACTIVITY</t>
+          <t>WALK</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -2192,11 +2174,11 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [SECRET, EQUAL, pkrs5dspky4jw]</t>
+          <t>[DISTANCE, STRICTLY_GREATER, 499]</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -2206,11 +2188,11 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Invite_someone_for_Coffee</t>
+          <t>Call a friend/family member</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2226,12 +2208,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>GENERAL_ACTIVITY</t>
+          <t>WALK</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>GENERAL_ACTIVITY</t>
+          <t>WALK</t>
         </is>
       </c>
       <c r="K18" t="n">
@@ -2239,154 +2221,13 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> [SECRET, EQUAL, czztpljd2kdanai639bmvfen9yz4mlawa30lu89]</t>
+          <t xml:space="preserve"> [SECRET, EQUAL, fdjklagas37]</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N18" t="inlineStr">
-        <is>
-          <t>GameBus Studio</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>6</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Walk_10000_steps_in_a_day</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://campaigns.healthyw8.gamebus.eu/api/media/HW8-immutable/5ff935d3-d0ae-4dce-bfcd-d2f71bf2ca63.jpeg</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>DAY_AGGREGATE</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>DAY_AGGREGATE</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>[STEPS_SUM, STRICTLY_GREATER, 10000], [SECRET, EQUAL, 3850d9nwbs5is5jso8py9]</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>10</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>GameBus Studio</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>6</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Go_on_a_group_activity</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://campaigns.healthyw8.gamebus.eu/api/media/HW8-immutable/5ff935d3-d0ae-4dce-bfcd-d2f71bf2ca63.jpeg</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>GENERAL_ACTIVITY</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>GENERAL_ACTIVITY</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> [SECRET, EQUAL, nkyaj8iykk90ptaglnpwga9870khytucfsrhub]</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>GameBus Studio</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>6</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Invite_someone_for_Coffee</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://campaigns.healthyw8.gamebus.eu/api/media/HW8-immutable/5ff935d3-d0ae-4dce-bfcd-d2f71bf2ca63.jpeg</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>GENERAL_ACTIVITY</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>GENERAL_ACTIVITY</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> [SECRET, EQUAL, 9h5pqyv03y58a]</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr">
         <is>
           <t>GameBus Studio</t>
         </is>
